--- a/SVN-GitMapping.xlsx
+++ b/SVN-GitMapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>SVN</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>GIT-Masterbranch (https://github.com/Granicus/eAccept-ROAM.git)</t>
+  </si>
+  <si>
+    <t>GIT-Develop</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -353,32 +359,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
